--- a/latex_files/authors/authors.xlsx
+++ b/latex_files/authors/authors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>MSSV/MSNV</t>
   </si>
@@ -115,66 +115,6 @@
     <t>anhtvgch220661@fpt.edu.vn</t>
   </si>
   <si>
-    <t>Xuan-Tung Dinh</t>
-  </si>
-  <si>
-    <t>HE172611</t>
-  </si>
-  <si>
-    <t>tungdxhe172611@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>0857748365</t>
-  </si>
-  <si>
-    <t>GCH220590</t>
-  </si>
-  <si>
-    <t>longndbgch220590@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>0943611256</t>
-  </si>
-  <si>
-    <t>HE187319</t>
-  </si>
-  <si>
-    <t>trangttthe187319@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>0364815337</t>
-  </si>
-  <si>
-    <t>HE181902</t>
-  </si>
-  <si>
-    <t>duongpxhe181902@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>0326633217</t>
-  </si>
-  <si>
-    <t>HE180788</t>
-  </si>
-  <si>
-    <t>linhnnhe180788@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>0562993974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPTU </t>
-  </si>
-  <si>
-    <t>GCH220720</t>
-  </si>
-  <si>
-    <t>huyhqgch220720@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>0763076124</t>
-  </si>
-  <si>
     <t>GCH220466</t>
   </si>
   <si>
@@ -193,29 +133,68 @@
     <t>SIT</t>
   </si>
   <si>
-    <t>Nguyen Dinh Bao Long</t>
-  </si>
-  <si>
-    <t>Tran Thi Thuy Trang</t>
-  </si>
-  <si>
-    <t>Xuan-Duong Pham</t>
-  </si>
-  <si>
-    <t>Nhat-Linh Nguyen</t>
-  </si>
-  <si>
-    <t>Quang-Huy Ha</t>
-  </si>
-  <si>
     <t>Duc-Manh Nguyen</t>
+  </si>
+  <si>
+    <t>Tuan-Minh Huynh</t>
+  </si>
+  <si>
+    <t>GCH230186</t>
+  </si>
+  <si>
+    <t>minhhtgch230186@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>Ta Huu Anh Duong</t>
+  </si>
+  <si>
+    <t>GCH220838</t>
+  </si>
+  <si>
+    <t>duongthagch220838@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>Son-Anh Bui</t>
+  </si>
+  <si>
+    <t>GCH220491</t>
+  </si>
+  <si>
+    <t>anhbsgch220491@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>Khanh-Toan Phan</t>
+  </si>
+  <si>
+    <t>HE170983</t>
+  </si>
+  <si>
+    <t>toanpkhe170983@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>Đỗ Minh Quang</t>
+  </si>
+  <si>
+    <t>HE180854</t>
+  </si>
+  <si>
+    <t>quangdmhe180854@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>Khanh-Duong Tran</t>
+  </si>
+  <si>
+    <t>GCH220749</t>
+  </si>
+  <si>
+    <t>duongtkgch220749@fpt.edu.vn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -259,8 +238,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,6 +271,12 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -293,7 +291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -311,6 +309,12 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -527,10 +531,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F980"/>
+  <dimension ref="A1:AA981"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A16" sqref="A16:AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
@@ -540,7 +544,7 @@
     <col min="4" max="4" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -558,7 +562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -578,21 +582,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:27" ht="15.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="10" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="9" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:27" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -612,7 +616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.4">
+    <row r="5" spans="1:27" ht="14.4">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -632,7 +636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -652,7 +656,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:27" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -672,7 +676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:27" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -690,210 +694,330 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.4">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="11">
+        <v>346159223</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="11">
+        <v>369893389</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+    </row>
+    <row r="11" spans="1:27" ht="12.3">
+      <c r="A11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="11">
+        <v>967219686</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+    </row>
+    <row r="12" spans="1:27" ht="12.3">
+      <c r="A12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="11">
+        <v>942603310</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+    </row>
+    <row r="13" spans="1:27" ht="14.4">
+      <c r="A13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="11">
+        <v>987094159</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+    </row>
+    <row r="14" spans="1:27" ht="12.3">
+      <c r="A14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="12.3">
-      <c r="A10" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="12.3">
-      <c r="A11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.3">
-      <c r="A12" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.3">
-      <c r="A13" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="8"/>
       <c r="E14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="12.3">
-      <c r="A15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D15" s="8"/>
       <c r="E15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="12.3">
-      <c r="A16" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="F15" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="14.4">
+      <c r="A16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" ht="12.3">
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="4:4" ht="12.3">
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="4:4" ht="12.3">
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="4:4" ht="12.3">
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="4:4" ht="12.3">
+      <c r="F16" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="12.3">
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="4:4" ht="12.3">
+    <row r="22" spans="1:6" ht="12.3">
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="4:4" ht="12.3">
+    <row r="23" spans="1:6" ht="12.3">
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="4:4" ht="12.3">
+    <row r="24" spans="1:6" ht="12.3">
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="4:4" ht="12.3">
+    <row r="25" spans="1:6" ht="12.3">
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="4:4" ht="12.3">
+    <row r="26" spans="1:6" ht="12.3">
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="4:4" ht="12.3">
+    <row r="27" spans="1:6" ht="12.3">
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="4:4" ht="12.3">
+    <row r="28" spans="1:6" ht="12.3">
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="4:4" ht="12.3">
+    <row r="29" spans="1:6" ht="12.3">
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="4:4" ht="12.3">
+    <row r="30" spans="1:6" ht="12.3">
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="4:4" ht="12.3">
+    <row r="31" spans="1:6" ht="12.3">
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="4:4" ht="12.3">
+    <row r="32" spans="1:6" ht="12.3">
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="4:4" ht="12.3">
@@ -3739,6 +3863,9 @@
     </row>
     <row r="980" spans="4:4" ht="12.3">
       <c r="D980" s="8"/>
+    </row>
+    <row r="981" spans="4:4" ht="12.3">
+      <c r="D981" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
